--- a/data/trans_bre/P0901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.72830397763916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.228681345741693</v>
+        <v>5.228681345741689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5422174123302768</v>
@@ -649,7 +649,7 @@
         <v>0.8270970999274482</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3464925489682861</v>
+        <v>0.346492548968286</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.791025550979404</v>
+        <v>0.9536344032711181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.918566459550036</v>
+        <v>4.774005080553236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.627264473943534</v>
+        <v>6.532010257042402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.72308029634262</v>
+        <v>1.784375485650204</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07815744751251949</v>
+        <v>0.08849268353671041</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3356541757614874</v>
+        <v>0.29999039992481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4278667399135825</v>
+        <v>0.424821651713309</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0925926726593783</v>
+        <v>0.1031733618262822</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.616192843893327</v>
+        <v>7.350844154761068</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.13860608205984</v>
+        <v>13.09448871303657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.24014415213365</v>
+        <v>15.32269736446311</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.21021289867511</v>
+        <v>8.791156993616985</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.110341584548482</v>
+        <v>1.088053288270387</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.208055586507786</v>
+        <v>1.173303754596171</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.361278827453791</v>
+        <v>1.342457221034766</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7002236957162209</v>
+        <v>0.6776151148562102</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.228439750484585</v>
+        <v>3.276004501566824</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.284154096562544</v>
+        <v>6.028906230646662</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.625161940053479</v>
+        <v>4.836010482915758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.542602283621564</v>
+        <v>5.595929214302982</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2796740170676215</v>
+        <v>0.2918475368179274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4262289029556072</v>
+        <v>0.4363637511260646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3972276330126628</v>
+        <v>0.4406847330975759</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4078646779571877</v>
+        <v>0.4080480069963608</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.606463704327902</v>
+        <v>9.437521488095172</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.26714294631564</v>
+        <v>13.15031440452149</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.77037233058624</v>
+        <v>10.9407450426306</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.35233847029472</v>
+        <v>11.2688476057347</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.170608425177815</v>
+        <v>1.11668082904141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.193330275024033</v>
+        <v>1.201399108443149</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.229327305034863</v>
+        <v>1.281194378290194</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.11348523374717</v>
+        <v>1.086703788357994</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.12647020536447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.286859576772191</v>
+        <v>5.286859576772193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.041562374422148</v>
@@ -849,7 +849,7 @@
         <v>1.20681453713034</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3655522316968779</v>
+        <v>0.3655522316968782</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.148412707504221</v>
+        <v>5.459171938090873</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.226496555409887</v>
+        <v>5.242378594328864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.622669076292791</v>
+        <v>6.490857148395977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.576295529388812</v>
+        <v>1.771828865809233</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5048943726185285</v>
+        <v>0.508592592120639</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4479693046667487</v>
+        <v>0.4194683903834541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6143574491205712</v>
+        <v>0.6419161614414612</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0894888316855327</v>
+        <v>0.1064926281930414</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.57506998939337</v>
+        <v>12.35907680200326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.58021408182852</v>
+        <v>12.54460955340218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.9785143848904</v>
+        <v>13.4888580718431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.804262563206187</v>
+        <v>9.031183033020454</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.793230855490471</v>
+        <v>1.743335871467744</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.501899206750494</v>
+        <v>1.536882225267874</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.99818097382129</v>
+        <v>1.897224031450303</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6979410735332157</v>
+        <v>0.7263805808000471</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.073633976750497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.294598837820288</v>
+        <v>8.294598837820294</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9725198789678655</v>
@@ -949,7 +949,7 @@
         <v>0.7394228324801242</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6060654954625744</v>
+        <v>0.606065495462575</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.961379594896032</v>
+        <v>6.084699822786079</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.016288543954891</v>
+        <v>4.185017058924896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.748773070979477</v>
+        <v>4.542136318718229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.149584931625503</v>
+        <v>5.219232404716244</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.529300440366939</v>
+        <v>0.5823995398077878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2673061059249375</v>
+        <v>0.2803842620170021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3872700142392463</v>
+        <v>0.3461644057016738</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3362324720386678</v>
+        <v>0.3366152520980507</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.16327411269872</v>
+        <v>12.08680877943462</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.06583757098968</v>
+        <v>11.16296348990733</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.32798270251961</v>
+        <v>11.3844568543163</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.13395436537382</v>
+        <v>11.09307715292362</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.525264428630931</v>
+        <v>1.51304081264712</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.01708816369207</v>
+        <v>1.035860422375676</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.223100230506351</v>
+        <v>1.215692683869318</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9215928100892566</v>
+        <v>0.9098097566731946</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.968174375959919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.107825465586267</v>
+        <v>7.107825465586274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8061036104462377</v>
@@ -1049,7 +1049,7 @@
         <v>0.8558108798549701</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5217170363097789</v>
+        <v>0.5217170363097795</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.588010806083687</v>
+        <v>5.782426680923313</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.260763766111388</v>
+        <v>7.073234437127382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.060840376358335</v>
+        <v>7.204488867759569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.572264599718442</v>
+        <v>5.514126059553003</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5755110769234731</v>
+        <v>0.5933970436061536</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5555478126417194</v>
+        <v>0.5486260575006845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.613647976739415</v>
+        <v>0.6291426793522614</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3756001348009965</v>
+        <v>0.3763567760409254</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.949461623966478</v>
+        <v>8.846152796312298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.71137511201645</v>
+        <v>10.77404515415018</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.58793375226928</v>
+        <v>10.83414815964805</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.718303692462657</v>
+        <v>8.719845025595385</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.093725343462644</v>
+        <v>1.060371148844281</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9494828405171061</v>
+        <v>0.9755451419288335</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.087375836610933</v>
+        <v>1.100172878021533</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6868643754256517</v>
+        <v>0.6799054386940317</v>
       </c>
     </row>
     <row r="19">
